--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -1516,7 +1516,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>114</v>
@@ -1525,7 +1525,7 @@
         <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -356,7 +356,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.autoritaMittente</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -374,6 +374,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -396,6 +408,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -454,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,7 +487,7 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="79.703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1596,7 +1620,7 @@
         <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>114</v>
@@ -1616,7 +1640,7 @@
         <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>114</v>
@@ -1645,7 +1669,87 @@
         <v>127</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,6 +496,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,125 +518,146 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -651,1105 +679,1549 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>9</v>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.9</t>
+    <t>193.19</t>
   </si>
   <si>
     <t>195</t>
@@ -484,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,7 +496,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1697,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,22 +1881,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>22</v>
@@ -1904,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,300 +1927,24 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dichiarazione di riacquisto della cittadinanza italiana resa al Consolato italiano all’estero</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.19</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Dichiarazione di riacquisto della cittadinanza italiana resa al Consolato italiano all’estero</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.19</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -680,1272 +683,1272 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -1614,7 +1614,7 @@
         <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>93</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -341,22 +347,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1154,7 +1160,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
@@ -1246,7 +1252,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1361,7 +1367,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1424,19 +1430,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1447,16 +1453,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1479,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1502,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1525,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1548,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1571,10 +1577,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
@@ -1663,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>113</v>
@@ -1686,7 +1692,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1723,16 +1729,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>120</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>121</v>
@@ -1755,7 +1761,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>122</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>123</v>
@@ -1778,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>124</v>
@@ -1792,7 +1798,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
@@ -1801,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>126</v>
@@ -1815,16 +1821,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>128</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>129</v>
@@ -1847,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>130</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
@@ -1870,7 +1876,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
@@ -1893,13 +1899,13 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1907,7 +1913,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>135</v>
@@ -1916,13 +1922,13 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>23</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>137</v>
@@ -1939,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -1948,6 +1954,29 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -493,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1390,7 +1414,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>45</v>
@@ -1413,7 +1437,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -1436,7 +1460,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -1453,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1523,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1546,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1545,16 +1569,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1568,7 +1592,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1577,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1591,7 +1615,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1600,10 +1624,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1821,16 +1845,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>128</v>
@@ -1844,16 +1868,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>130</v>
@@ -1867,16 +1891,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1890,16 +1914,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>134</v>
@@ -1913,22 +1937,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>23</v>
@@ -1936,7 +1960,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>137</v>
@@ -1945,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -1959,7 +1983,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>139</v>
@@ -1968,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>140</v>
@@ -1977,6 +2001,98 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1000,7 +1006,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>45</v>
@@ -1092,7 +1098,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>45</v>
@@ -1207,7 +1213,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -1299,7 +1305,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -1506,7 +1512,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,16 +1598,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1615,7 +1621,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1624,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1638,7 +1644,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1647,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1661,7 +1667,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1670,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -1693,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
@@ -1716,10 +1722,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,7 +1805,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>121</v>
@@ -1808,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>122</v>
@@ -1822,16 +1828,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>124</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,16 +1874,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>130</v>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
@@ -1900,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
@@ -1923,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>134</v>
@@ -1937,7 +1943,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>135</v>
@@ -1946,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>136</v>
@@ -1960,16 +1966,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>139</v>
@@ -1992,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>140</v>
@@ -2006,7 +2012,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>141</v>
@@ -2015,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>142</v>
@@ -2029,7 +2035,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>143</v>
@@ -2038,13 +2044,13 @@
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>145</v>
@@ -2061,13 +2067,13 @@
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>147</v>
@@ -2084,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>148</v>
@@ -2093,6 +2099,29 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1282,7 +1288,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1305,7 +1311,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -1535,7 +1541,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1621,16 +1627,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1653,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1667,7 +1673,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1676,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -1699,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
@@ -1722,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
@@ -1745,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,7 +1834,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>123</v>
@@ -1837,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>124</v>
@@ -1851,16 +1857,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>126</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,16 +1903,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
@@ -1929,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>134</v>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>135</v>
@@ -1952,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>136</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>137</v>
@@ -1975,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -1989,16 +1995,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>140</v>
@@ -2012,7 +2018,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>141</v>
@@ -2021,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>142</v>
@@ -2035,7 +2041,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>143</v>
@@ -2044,7 +2050,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>144</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>145</v>
@@ -2067,13 +2073,13 @@
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -2081,7 +2087,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>147</v>
@@ -2090,13 +2096,13 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>149</v>
@@ -2113,7 +2119,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>150</v>
@@ -2122,6 +2128,29 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -706,1452 +712,1498 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>23</v>
+      <c r="B72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1938,7 +1944,7 @@
         <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>109</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1978,16 +1984,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>136</v>
@@ -2001,7 +2007,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>137</v>
@@ -2010,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>138</v>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>139</v>
@@ -2033,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>140</v>
@@ -2047,7 +2053,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>141</v>
@@ -2056,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>142</v>
@@ -2070,16 +2076,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>144</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>145</v>
@@ -2102,7 +2108,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>146</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>147</v>
@@ -2125,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>148</v>
@@ -2139,7 +2145,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>149</v>
@@ -2148,13 +2154,13 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>25</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>151</v>
@@ -2171,13 +2177,13 @@
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2185,7 +2191,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>153</v>
@@ -2194,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>154</v>
@@ -2203,6 +2209,29 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1622,7 +1628,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>47</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1708,16 +1714,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>113</v>
@@ -1740,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>115</v>
@@ -1763,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>116</v>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>117</v>
@@ -1786,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>118</v>
@@ -1800,7 +1806,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>119</v>
@@ -1809,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>120</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>121</v>
@@ -1832,10 +1838,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,7 +1921,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>127</v>
@@ -1924,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>128</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>129</v>
@@ -1947,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>130</v>
@@ -1961,16 +1967,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>132</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2007,16 +2013,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>138</v>
@@ -2030,7 +2036,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>139</v>
@@ -2039,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>140</v>
@@ -2053,7 +2059,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>141</v>
@@ -2062,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>142</v>
@@ -2076,7 +2082,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>143</v>
@@ -2085,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>144</v>
@@ -2099,16 +2105,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>146</v>
@@ -2122,7 +2128,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>147</v>
@@ -2131,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>148</v>
@@ -2145,7 +2151,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>149</v>
@@ -2154,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>150</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>151</v>
@@ -2177,13 +2183,13 @@
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2191,7 +2197,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>153</v>
@@ -2200,13 +2206,13 @@
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>25</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>155</v>
@@ -2223,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>156</v>
@@ -2232,6 +2238,29 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,12 +315,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -547,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1628,7 +1622,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>47</v>
@@ -1691,19 +1685,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,16 +1708,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1737,7 +1731,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>113</v>
@@ -1746,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
@@ -1760,7 +1754,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>115</v>
@@ -1769,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>116</v>
@@ -1783,7 +1777,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>117</v>
@@ -1792,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>118</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>119</v>
@@ -1815,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>120</v>
@@ -1829,7 +1823,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>121</v>
@@ -1838,10 +1832,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1921,7 +1915,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>127</v>
@@ -1930,7 +1924,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>128</v>
@@ -1944,7 +1938,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>129</v>
@@ -1953,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>130</v>
@@ -1967,16 +1961,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>132</v>
@@ -1990,19 +1984,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2013,16 +2007,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>138</v>
@@ -2036,7 +2030,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>139</v>
@@ -2045,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>140</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>141</v>
@@ -2068,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>142</v>
@@ -2082,7 +2076,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>143</v>
@@ -2091,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>144</v>
@@ -2105,16 +2099,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>146</v>
@@ -2128,7 +2122,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>147</v>
@@ -2137,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>148</v>
@@ -2151,7 +2145,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>149</v>
@@ -2160,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>150</v>
@@ -2174,7 +2168,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>151</v>
@@ -2183,13 +2177,13 @@
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2197,7 +2191,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>153</v>
@@ -2206,13 +2200,13 @@
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>25</v>
@@ -2220,7 +2214,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>155</v>
@@ -2229,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>156</v>
@@ -2238,29 +2232,6 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_032.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -185,6 +185,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -351,6 +363,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -547,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1122,7 +1137,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1145,7 +1160,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>47</v>
@@ -1191,7 +1206,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>47</v>
@@ -1214,7 +1229,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1306,7 +1321,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1329,7 +1344,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1352,7 +1367,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1375,7 +1390,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1651,7 +1666,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>47</v>
@@ -1674,7 +1689,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>47</v>
@@ -1714,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,16 +1775,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>116</v>
@@ -1778,288 +1793,288 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>141</v>
@@ -2068,10 +2083,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,22 +2212,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>25</v>
@@ -2220,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,24 +2258,70 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>25</v>
       </c>
     </row>
